--- a/src/main/resources/DocHelper配置表.xlsx
+++ b/src/main/resources/DocHelper配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maoxiaomeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\java-projects\doc-helper\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5BDBB6-7203-40EE-87D6-C0E01D4CEFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247AA392-CDED-4E67-913F-3BBD9C829FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础菜单" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,6 @@
   </si>
   <si>
     <t>标准管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://121.37.178.126:9501/v2/api-docs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -697,6 +693,10 @@
   <si>
     <t>swagger文档链接地址(注意当前版本只做了swagger2协议的兼容)
 ,确保可以访问,如 http://ip:port/v2/api-docs?group=manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ip:port/v2/api-docs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,24 +1059,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="20.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1100,12 +1100,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1121,12 +1121,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1598,13 +1598,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="57.625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1671,15 +1671,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1734,13 +1734,13 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1838,10 +1838,10 @@
         <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1966,10 +1966,10 @@
         <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2082,10 +2082,10 @@
         <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2201,10 +2201,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="327.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="345" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="69" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -2320,10 +2320,10 @@
         <v>48</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2365,18 +2365,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF603DEA-93D0-4C94-8C9F-D57E2FBC86C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="57.5" customWidth="1"/>
-    <col min="3" max="3" width="56.625" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -2387,18 +2387,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -2420,12 +2420,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>

--- a/src/main/resources/DocHelper配置表.xlsx
+++ b/src/main/resources/DocHelper配置表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\develop\java-projects\doc-helper\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\12008\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247AA392-CDED-4E67-913F-3BBD9C829FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6DD4FD-25EB-42D5-BC99-A1F03817C4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基础菜单" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="76">
   <si>
     <t>元数据</t>
   </si>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${IMAGE:C:\Users\maoxiaomeng\Desktop\规则日志编号逻辑.png}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>输出文档目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\Users\maoxiaomeng\Desktop\测试详设new.docx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>themleaf的接口文档模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,49 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提供数据标准的管理和查询;提供开发标准的管理功能。提供命名词典的管理功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增标准
-修改标准
-查询标准
-删除标准
-导入标准
-导出标准
-绑定标准
-解绑标准
-查询开发标准
-查看开发标准
-新增开发标准
-修改开发标准
-删除开发标准
-下载附件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应时间200ms以内。</t>
-  </si>
-  <si>
-    <t>1. 新增标准: 根据输入的标准信息，在数据库中创建一条新的标准记录；需要带入类目编号,标准名称不允许重复
-2. 修改标准: 根据输入的标准编号，修改对应的标准记录；标准名称不允许重复
-3. 查询标准: 根据输入的标准编号，查询对应的标准记录；提供按目录,名称,分页等条件查询,
-4. 删除标准: 根据输入的标准编号，删除对应的标准记录；如有任务引用,提示不支持删除
-5. 导入标准: 从指定的文件中读取标准信息，并批量导入到数据库中；不关心原始目录,所有标准导入指定目录,走新增逻辑
-6. 导出标准: 将指定的标准信息导出为Excel,选中多个目录,多个标准,最终呈现出多个标准列表
-7. 绑定/解绑: 提供树形 库-表-字段的结构树查询,一个字段只允许使用一个标准,多次绑定操作,为覆盖操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要登陆,携带合法访问标识</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>提供数据质量规则管理的功能。</t>
-  </si>
-  <si>
     <t>响应时间200ms以内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,366 +277,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询规则动作模板列表
-查看动作模板明细
-查询规则列表
-查看规则明细
-编辑规则明细
-删除规则明细
-绑定/解绑 字段规则
-库表规则查询
-数据分区字段设置
-试跑规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询规则动作模板列表:查询动作枚举列表
-查看动作模板明细: 查询枚举详情
-查询规则列表: 提供按规则名称,动作类型等 条件查询,分页查询
-查看规则明细:查询规则明细
-编辑规则明细:编辑规则明细
-删除规则明细:删除规则明细,提供引用校验
-绑定/解绑 字段规则:一个字段绑定多个规则,后端处理每次的幂等逻辑
-库表规则查询:查询库表中或库表的字段上绑定的规则
-数据分区字段设置:配置对应库表的分区字段
-试跑规则:提供规则的试运行,传入分区时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${API:/api/dc/dms/dmsDataStandard/add},
-${API:/api/dc/dms/dmsDataStandard/delete},
-${API:/api/dc/dms/dmsDataStandard/detail/{code}},
-${API:/api/dc/dms/dmsDataStandard/export},
-${API:/api/dc/dms/dmsDataStandard/importExcel},
-${API:/api/dc/dms/dmsDataStandard/list},
-${API:/api/dc/dms/dmsDataStandard/modify},
-${API:/api/dc/dms/dmsDataStandard/page},
-${API:/api/dc/dms/dmsDataStandard/tableFieldMapping},
-${API:/api/dc/dms/dmsDataStandard/template},
-${API:/api/dc/dms/dmsDataDict/add},
-${API:/api/dc/dms/dmsDataDict/delete},
-${API:/api/dc/dms/dmsDataDict/detail/{code}},
-${API:/api/dc/dms/dmsDataDict/list},
-${API:/api/dc/dms/dmsDataDict/modify},
-${API:/api/dc/dms/dmsDataDict/page},
-${API:/api/dc/dms/dmsDevStandard/add},
-${API:/api/dc/dms/dmsDevStandard/delete},
-${API:/api/dc/dms/dmsDevStandard/detail/{code}},
-${API:/api/dc/dms/dmsDevStandard/list},
-${API:/api/dc/dms/dmsDevStandard/modify},
-${API:/api/dc/dms/dmsDevStandard/page},
-${API:/api/dc/dms/dmsDataCatalog/add},
-${API:/api/dc/dms/dmsDataCatalog/delete},
-${API:/api/dc/dms/dmsDataCatalog/detail/{code}},
-${API:/api/dc/dms/dmsDataCatalog/list},
-${API:/api/dc/dms/dmsDataCatalog/modify},
-${API:/api/dc/dms/dmsDataCatalog/page}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${API:/api/dc/dms/dmsQualityRule/add},
-${API:/api/dc/dms/dmsQualityRule/delete},
-${API:/api/dc/dms/dmsQualityRule/detail/{code}},
-${API:/api/dc/dms/dmsQualityRule/execute},
-${API:/api/dc/dms/dmsQualityRule/list},
-${API:/api/dc/dms/dmsQualityRule/modify},
-${API:/api/dc/dms/dmsQualityRule/page},
-${API:/api/dc/dms/dmsRuleTemplate/action/compareMode/{compareModeScene}},
-${API:/api/dc/dms/dmsRuleTemplate/action/patten/list},
-${API:/api/dc/dms/dmsRuleTemplate/list},
-${API:/api/dc/dms/dmsRuleTemplate/sql/preview},
-${API:/api/dc/dms/dmsQualityRuleLog/detail/{code}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供数据资产的查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${API:/api/dc/dms/search/api},
-${API:/api/dc/dms/search/index},
-${API:/api/dc/dms/search/table}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本页面查询都是分页查询
-1. 查询表: 根据表名称,模糊查询对应的表,如果不传入,则查询全部;
-2. 查询API:根据API名称,模糊查询对应的API,如果不传入,则查询全部;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于已有资产的管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于已有资产的管理,分类,一个资产可以属于多个类目,默认有[未归属]类目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 新增类目: 将新增的类目,入库到dms_catalog表,同一层级,不允许有重复名称
-2. 修改类目: 修改类目,入库到dms_catalog表,同一层级,不允许有重复名称
-3. 删除类目: 逻辑删除dms_catalog表的类目
-4. 查询类目: 查询所有类目树,资源数量统计,统计到当前层级,以及子集的资源数量综合
-5. 绑定资产: 记录绑定的资源编码,资源类型,以及绑定项的映射到dms_rel_catalog_resource中
-6. 移除绑定: 删除dms_rel_catalog_resource表中的映射关系
-7. 关联类目: 根据选中的资源code,反向查询资源列表,并构建列表树 //todo 这里树的构建逻辑抛出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供数据质量规则任务管理的功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询数据质量规则任务 
-查看数据质量规则任务 
-新增质量规则任务
-修改质量规则任务
-删除质量规则任务
-立即执行规则任务
-中止规则任务
-查询任务报告
-查询任务日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 查询数据质量规则任务 : 分页列表查询,提供按任务名称,执行状态等条件来查询,分页查询
-2. 查看数据质量规则任务 : 查询任务详情,关联查询任务关联的表,关联查询表关联的规则,标准
-3. 新增质量规则任务: 新增任务,名称不可重复,必须选择至少一个表,corn表达式校验,数据范围表达式校验
-4. 修改质量规则任务: 修改任务,名称不可重复,必须选择至少一个表,corn表达式校验,数据范围表达式校验,需要任务停止状态下修改
-5. 删除质量规则任务:删除任务,通知任务调度中心,删除任务,需要任务停止状态下删除
-6. 立即执行规则任务:立即执行任务,任务的结果影响统计口径
-7. 启动规则任务:启动任务,首次启动提交任务到任务调度中心,并启动
-8. 停止规则任务:停止任务,通知任务调度中心,停止任务
-9. 查询任务实例列表:分页查询,提供相应条件查询;提供表级维度查询
-10. 查询任务实例报告:分页查询,提供相应条件查询;提供表级维度查询
-11. 查询任务实例日志:分页查询,提供相应条件查询;提供表级维度查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${API:/api/dc/dms/catalog/add},
-${API:/api/dc/dms/catalog/binding},
-${API:/api/dc/dms/catalog/del/{dmsCatalogCode}},
-${API:/api/dc/dms/catalog/list},
-${API:/api/dc/dms/catalog/modify},
-${API:/api/dc/dms/catalog/relationCatalog},
-${API:/api/dc/dms/catalog/resources},
-${API:/api/dc/dms/catalog/unbinding}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;
-&lt;html xmlns:th="http://www.thymeleaf.org"&gt;
-&lt;head&gt;
-    &lt;meta http-equiv="Content-Type" content="application/msword; charset=utf-8"/&gt;
-    &lt;title&gt;toWord&lt;/title&gt;
-    &lt;style type="text/css"&gt;
-        .bg {
-            font-size: 14.5px;
-            font-weight: bold;
-            color: #000;
-            background-color: #e3e3e3;
-        }
-        table {
-            border-width: 1px;
-            border-style: solid;
-            border-color: black;
-            table-layout: fixed;
-        }
-        tr {
-            height: 32px;
-            font-size: 12px;
-        }
-        td {
-            padding-left: 10px;
-            border-width: 1px;
-            border-style: solid;
-            border-color: black;
-            height: 32px;
-            overflow: hidden;
-            word-break: break-all;
-            word-wrap: break-word;
-            font-size: 14.5px;
-        }
-        .bg td {
-            font-size: 14.5px;
-        }
-        tr td {
-            font-size: 14.5px;
-        }
-        .specialHeight {
-            height: 40px;
-        }
-        .first_title {
-            height: 60px;
-            line-height: 60px;
-            margin: 0;
-            font-weight: bold;
-            font-size: 21px;
-        }
-        .second_title {
-            height: 40px;
-            line-height: 40px;
-            margin: 0;
-            font-size: 18.5px;
-        }
-        .doc_title {
-            font-size: 42.5px;
-            text-align: center;
-        }
-        .download_btn {
-            float: right;
-        }
-        body {
-            font-family: 思源黑体 Normal;
-        }
-    &lt;/style&gt;
-&lt;/head&gt;
-&lt;body&gt;
-&lt;div style="width:800px; margin: 0 auto"&gt;
-    &lt;div th:each="tableMap:${tableMap}" style="margin-bottom:20px;"&gt;
-        &lt;!--这个是类的说明--&gt;
-        &lt;div th:each="table,tableStat:${tableMap.value}"&gt;
-            &lt;!-- 动态编号+接口名称 --&gt;
-           &lt;p class="second_title" th:text="${tableStat.count} + '.' + ${tableMap.key}+'-'+${table.tag}"&gt;&lt;/p&gt;
-            &lt;!--这个是每个请求的说明，方便生成文档后进行整理--&gt;
-            &lt;p class="second_title"&gt;1. 基础信息&lt;/p&gt;
-            &lt;table border="1" cellspacing="0" cellpadding="0" width="100%"&gt;
-                &lt;tr class="bg"&gt;
-                    &lt;td colspan="5" th:text="${table.tag}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;tr&gt;
-                    &lt;td width="25%"&gt;接口描述&lt;/td&gt;
-                    &lt;td colspan="4" th:text="${table.description}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;tr&gt;
-                    &lt;td&gt;URL&lt;/td&gt;
-                    &lt;td colspan="4" th:text="${table.url}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;tr&gt;
-                    &lt;td&gt;请求方式&lt;/td&gt;
-                    &lt;td colspan="4" th:text="${#strings.toUpperCase(table.requestType)}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;tr&gt;
-                    &lt;td&gt;请求类型&lt;/td&gt;
-                    &lt;td colspan="4" th:text="${table.requestForm}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;tr&gt;
-                    &lt;td&gt;返回类型&lt;/td&gt;
-                    &lt;td colspan="4" th:text="${table.responseForm}"&gt;&lt;/td&gt;
-                &lt;/tr&gt;
-            &lt;/table&gt;
-            &lt;p class="second_title"&gt;2. 请求参数&lt;/p&gt;
-            &lt;table border="1" cellspacing="0" cellpadding="0" width="100%"&gt;
-                &lt;tr class="bg"&gt;
-                    &lt;td&gt;参数名&lt;/td&gt;
-                    &lt;td width="15%"&gt;数据类型&lt;/td&gt;
-                    &lt;td width="15%"&gt;参数类型&lt;/td&gt;
-                    &lt;td width="15%"&gt;是否必填&lt;/td&gt;
-                    &lt;td width="29%"&gt;说明&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;th:block th:each="request, c:${table.requestList}"&gt;
-                    &lt;tr&gt;
-                        &lt;td align="left" th:text="${c.count} + '.' + ${request.name}"&gt;&lt;/td&gt;
-                        &lt;td th:text="${request.type}"&gt;&lt;/td&gt;
-                        &lt;td th:text="${request.paramType}"&gt;&lt;/td&gt;
-                        &lt;td th:if="${request.require}" th:text="Y"&gt;&lt;/td&gt;
-                        &lt;td th:if="${!request.require}" th:text="N"&gt;&lt;/td&gt;
-                        &lt;td th:text="${request.remark}"&gt;&lt;/td&gt;
-                        &lt;!--                        &lt;td th:if="${request.modelAttr}" th:text="asdfagadfg"&gt;&lt;/td&gt;--&gt;
-                    &lt;/tr&gt;
-                    &lt;th:block th:if="${request.modelAttr}"&gt;
-                        &lt;tbody th:include="this::request(${request.modelAttr.properties},${c.count} + '.', 1)"/&gt;
-                    &lt;/th:block&gt;
-                &lt;/th:block&gt;
-            &lt;/table&gt;
-            &lt;p class="second_title" &gt;3. 响应参数&lt;/p&gt;
-            &lt;table border="1" cellspacing="0" cellpadding="0" width="100%"&gt;
-                &lt;tr class="bg"&gt;
-                    &lt;td&gt;返回属性名&lt;/td&gt;
-                    &lt;td colspan="2"&gt;类型&lt;/td&gt;
-                    &lt;td colspan="2"&gt;说明&lt;/td&gt;
-                &lt;/tr&gt;
-                &lt;!--               对返回参数 递归生成行--&gt;
-                &lt;tbody th:include="this::response(${table.modelAttr.properties},'', 1)"/&gt;
-            &lt;/table&gt;
-        &lt;/div&gt;
-    &lt;/div&gt;
-&lt;/div&gt;
-&lt;th:block th:fragment="request(properties,count, lv)"&gt;
-    &lt;th:block th:each="p,c : ${properties}"&gt;
-        &lt;tr&gt;
-            &lt;td align="left" th:text="${count} + '' + ${c.count} + '.' + ${p.name}"
-                th:style="|padding-left:${10*lv}px|"&gt;&lt;/td&gt;
-            &lt;td th:text="${p.type}"&gt;&lt;/td&gt;
-            &lt;td&gt;&lt;/td&gt;
-            &lt;td th:if="${p.require}" th:text="Y"&gt;&lt;/td&gt;
-            &lt;td th:if="${!p.require}" th:text="N"&gt;&lt;/td&gt;
-            &lt;td th:text="${p.description}"&gt;&lt;/td&gt;
-        &lt;/tr&gt;
-        &lt;th:block th:unless="${#lists.isEmpty(p.properties)}"
-                  th:include="this::request(${p.properties},${count} + '' + ${c.count} + '.',${lv+1})"/&gt;
-    &lt;/th:block&gt;
-&lt;/th:block&gt;
-&lt;th:block th:fragment="response(properties,count, lv)"&gt;
-    &lt;th:block th:each="p,c : ${properties}"&gt;
-        &lt;tr&gt;
-            &lt;td align="left" th:text="${count} + '' + ${c.count} + '.' + ${p.name}"
-                th:style="|padding-left:${10*lv}px|"&gt;&lt;/td&gt;
-            &lt;td colspan="2" th:text="${p.type}"&gt;&lt;/td&gt;
-            &lt;td colspan="2" th:text="${p.description}"&gt;&lt;/td&gt;
-        &lt;/tr&gt;
-        &lt;th:block th:unless="${#lists.isEmpty(p.properties)}"
-                  th:include="this::response(${p.properties},${count} + '' + ${c.count} + '.',${lv+1})"/&gt;
-    &lt;/th:block&gt;
-&lt;/th:block&gt;
-&lt;/body&gt;
-&lt;/html&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${API:/api/dc/dms/dmsQualityRule/list}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息:数据中台模块: 
-dms_quality_task 数据质量任务调度表;
-dms_quality_task_instance_log 数据质量任务调度实例表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息:数据中台模块: 
-dms_quality_rule 数据质量规则,
-dms_quality_rule_log 数据质量规则日志表,
-dms_data_scope_config  数据范围分区配置表,
-dms_rel_table_field_mapping 质量规则与字段映射表,
-dw_table 数仓表,
-dw_table_field  数仓表字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">基础信息:数据中台模块: 
-dw_interface 数据资产-接口表 
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息:数据中台模块: 
-dms_catalog 数据资产类目表,
-dms_rel_catalog_resource 数据资产资源类目管理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息:数据中台模块: dms_data_standard 数据标准表,
-dms_data_catalog 数据标准类目表,
-dms_rel_catalog_standard  数据标准与数据标准类目表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,7 +286,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://ip:port/v2/api-docs</t>
+    <t>${IMAGE:http://120.27.136.238:39000/typora/work/202306102023756.png}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\Users\12008\Desktop\测试详设new.docx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1189,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1206,7 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
@@ -1668,16 +1262,13 @@
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1700,7 +1291,7 @@
         <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
@@ -1728,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773B3B1-7AAC-408E-A9B2-A52906CA7705}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1333,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -1751,609 +1342,71 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="3" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>49</v>
-      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>12</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>52</v>
-      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="21" spans="3:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="29" spans="3:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="34" spans="3:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="36" spans="3:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="3:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2365,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF603DEA-93D0-4C94-8C9F-D57E2FBC86C7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2384,58 +1437,51 @@
         <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C2241AF3-3107-43E5-A690-BA86875F6FF5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>